--- a/biology/Neurosciences/Olivier_Houdé/Olivier_Houdé.xlsx
+++ b/biology/Neurosciences/Olivier_Houdé/Olivier_Houdé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olivier_Houd%C3%A9</t>
+          <t>Olivier_Houdé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Houdé, né le 28 juin 1963 à Bruxelles (Belgique), est un enseignant-chercheur et psychologue français. Professeur de psychologie du développement à l'Université de Paris, il est administrateur de l'Institut universitaire de France de 2018 à 2023. 
 Ses recherches portent sur le développement de l'enfant et les neurosciences cognitives. Son laboratoire de la Sorbonne est connu en France et dans le monde pour avoir développé une théorie nouvelle du développement cognitif, du raisonnement et de la décision, fondée sur le processus d'inhibition et de contrôle cognitif qui dépend du cortex préfrontal, à l'avant du cerveau.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olivier_Houd%C3%A9</t>
+          <t>Olivier_Houdé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Houdé est instituteur de formation initiale (École Normale Saint-Thomas, à Bruxelles, devenue aujourd’hui la Haute École Galilée[1]), puis réalise un doctorat de psychologie à l'université Paris 5 (Sorbonne) en 1991, spécialisé en psychologie du développement cognitif de l'enfant, et une habilitation universitaire en 1994. Il est nommé Professeur en psychologie expérimentale dans cette même université en 1995[2]. En 1998, il réalise un DEA  complémentaire de biologie humaine à l'université Claude Bernard de Lyon pour se spécialiser en imagerie cérébrale, technologie alors naissante.
-En 1998, il dirige la collection « Psychologie et sciences de la pensée » aux Presses universitaires de France (PUF)[3]
-Il dirige le Laboratoire de psychologie du développement et de l’éducation de l’enfant (LaPsyDÉ) de l'université de Paris et du CNRS, de 1998 à 2018. Dans une tribune du Monde, il indique en 2018 : « Avec mon laboratoire du CNRS, nous avons réalisé depuis dix ans les toutes premières recherches en France utilisant l'imagerie par résonance magnétique fonctionnelle (IRMf) avec des enfants volontaires d’écoles maternelles et primaires pour comprendre comment ils apprennent à lire, écrire, compter, penser (ou raisonner) et respecter autrui. [...] Aujourd'hui, nous suivons les capacités de raisonnement d’adolescents jusqu'au lycée et au bac, mais aussi leurs capacités de contrôle cognitif et émotionnel, qui dépendent du cortex préfrontal, à l’avant du cerveau, et du système limbique. On explore également l’impact sur le cerveau d’apprentissages cognitifs quotidiens sur tablettes numériques[4]. »
-Membre junior de l'Institut universitaire de France de 1997 à 2002, puis senior de 2007 à 2018[5], il en est l'administrateur de 2018 à 2023[6].
-Le 3 décembre 2018, il est élu membre de l'Académie des sciences morales et politiques au fauteuil de Lucien Israël[7].
-Le 25 mars 2019, il est élu à l'Académie royale des sciences, des lettres et des beaux-arts de Belgique[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Houdé est instituteur de formation initiale (École Normale Saint-Thomas, à Bruxelles, devenue aujourd’hui la Haute École Galilée), puis réalise un doctorat de psychologie à l'université Paris 5 (Sorbonne) en 1991, spécialisé en psychologie du développement cognitif de l'enfant, et une habilitation universitaire en 1994. Il est nommé Professeur en psychologie expérimentale dans cette même université en 1995. En 1998, il réalise un DEA  complémentaire de biologie humaine à l'université Claude Bernard de Lyon pour se spécialiser en imagerie cérébrale, technologie alors naissante.
+En 1998, il dirige la collection « Psychologie et sciences de la pensée » aux Presses universitaires de France (PUF)
+Il dirige le Laboratoire de psychologie du développement et de l’éducation de l’enfant (LaPsyDÉ) de l'université de Paris et du CNRS, de 1998 à 2018. Dans une tribune du Monde, il indique en 2018 : « Avec mon laboratoire du CNRS, nous avons réalisé depuis dix ans les toutes premières recherches en France utilisant l'imagerie par résonance magnétique fonctionnelle (IRMf) avec des enfants volontaires d’écoles maternelles et primaires pour comprendre comment ils apprennent à lire, écrire, compter, penser (ou raisonner) et respecter autrui. [...] Aujourd'hui, nous suivons les capacités de raisonnement d’adolescents jusqu'au lycée et au bac, mais aussi leurs capacités de contrôle cognitif et émotionnel, qui dépendent du cortex préfrontal, à l’avant du cerveau, et du système limbique. On explore également l’impact sur le cerveau d’apprentissages cognitifs quotidiens sur tablettes numériques. »
+Membre junior de l'Institut universitaire de France de 1997 à 2002, puis senior de 2007 à 2018, il en est l'administrateur de 2018 à 2023.
+Le 3 décembre 2018, il est élu membre de l'Académie des sciences morales et politiques au fauteuil de Lucien Israël.
+Le 25 mars 2019, il est élu à l'Académie royale des sciences, des lettres et des beaux-arts de Belgique.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olivier_Houd%C3%A9</t>
+          <t>Olivier_Houdé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jacqueline Bideaud et Olivier Houdé, Cognition et développement : Boîte à outils théoriques, Berne et New York, Peter Lang, 1991, 153 p.
 Olivier Houdé, Catégorisation et développement cognitif  (préf. Jacqueline Bideaud), Paris, PUF, 1992, 204 p. (BNF 35512632)
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Olivier_Houd%C3%A9</t>
+          <t>Olivier_Houdé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,17 +622,90 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Décorations
- Chevalier de la Légion d'honneur (2013)[9].
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2013).
  Commandeur de l'ordre des Palmes académiques, décret du 21 juillet 2021 (promotion du 14 juillet par le Premier Ministre).
-Commandeur de l'Ordre de la Couronne, décoration conférée par Sa Majesté le Roi Philippe de Belgique (2023).
-Distinctions
-Doctorat honoris causa de l'université du Québec à Montréal, Canada (2015)
-Prix
-Prix Dagnan-Bouveret de l'Académie des sciences morales et politique pour l'ouvrage Cerveau et psychologie (2002).
+Commandeur de l'Ordre de la Couronne, décoration conférée par Sa Majesté le Roi Philippe de Belgique (2023).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Houdé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Houd%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Doctorat honoris causa de l'université du Québec à Montréal, Canada (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olivier_Houdé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Houd%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Dagnan-Bouveret de l'Académie des sciences morales et politique pour l'ouvrage Cerveau et psychologie (2002).
 Prix international Roberval - mention jeunesse pour l'ouvrage L'enfant et les écrans (2013).
-Prix Binoux, Henri de Parville, Jean-Jacques Berger, Remlinger d'histoire des sciences et épistémologie de l’Académie des sciences (2014)[10] pour l'ouvrage Le Raisonnement.
-Grand prix Moron (philosophie) de l'Académie française pour l'ouvrage Apprendre à résister (2015)[11].
+Prix Binoux, Henri de Parville, Jean-Jacques Berger, Remlinger d'histoire des sciences et épistémologie de l’Académie des sciences (2014) pour l'ouvrage Le Raisonnement.
+Grand prix Moron (philosophie) de l'Académie française pour l'ouvrage Apprendre à résister (2015).
 2020 Prix Turgot pour la recherche en économie.</t>
         </is>
       </c>
